--- a/analysis/NC2022-svpoints.xlsx
+++ b/analysis/NC2022-svpoints.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/data/NC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE61C20-8D4A-7B47-9DCF-B820E0D7039E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815EFAB0-B7D2-DA42-8CDB-B7579335EFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{6AC3E621-F4E7-D645-AA58-99A471AEEF5A}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -155,8 +155,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="J1" sqref="J1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
